--- a/FCI_Fin/Output/List_DPT2.xlsx
+++ b/FCI_Fin/Output/List_DPT2.xlsx
@@ -8,6 +8,8 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="rr" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="rice" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="wheat" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -604,4 +606,404 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>From_state</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>To_state</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SHDM</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Haryana</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>PKYN</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3.9798</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>MKS</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>FCSH</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>15.417</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>DUI</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>PRTP</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11.4885</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>From_state</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>To_state</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Values</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Cost</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TTO</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>FCSJ</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Jammu &amp; Kashmir</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.351100000000001</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>BLZ</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ARIK</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12.2634</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>KNNN</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CWCB</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.351100000000001</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>SFMU</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>KSV</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>12.2634</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>TAPA</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Punjab</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BJO</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>UP</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Wheat</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
+      <c r="H6" t="n">
+        <v>12.2634</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>